--- a/experiments/2020_04_18/Simulation_Matrix_2020_04_18_Scenario1_WiFi.xlsx
+++ b/experiments/2020_04_18/Simulation_Matrix_2020_04_18_Scenario1_WiFi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBRL_Mezzacappa_2\Documents\ILIR_SNA\Code\dronelab\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ross\Work\Japan\Drones\Code\sim\experiments\2020_04_18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE793F83-4EC3-4BE4-B3B8-E215E748FDE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F678A46B-D92D-4198-856F-6EF4210DC7D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="930" windowWidth="19980" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Space Filling Mixture Design" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,15 @@
   <definedNames>
     <definedName name="matrix_output_camera" localSheetId="0">'Space Filling Mixture Design'!$F$3:$O$102</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -574,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="S95" sqref="S95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +601,7 @@
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -615,7 +622,7 @@
       <c r="N1" s="9"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -662,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -708,8 +715,16 @@
       <c r="O3" s="16">
         <v>1900</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f>SUM(F3:O3)/10</f>
+        <v>1551.5</v>
+      </c>
+      <c r="Q3">
+        <f>P3/60</f>
+        <v>25.858333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -755,8 +770,16 @@
       <c r="O4" s="16">
         <v>1577</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <f t="shared" ref="P4:P67" si="0">SUM(F4:O4)/10</f>
+        <v>1250.3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q67" si="1">P4/60</f>
+        <v>20.838333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -802,8 +825,16 @@
       <c r="O5" s="16">
         <v>1228</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1242.7</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>20.711666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -849,8 +880,16 @@
       <c r="O6" s="16">
         <v>3550</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>2193.6999999999998</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>36.56166666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -896,8 +935,16 @@
       <c r="O7" s="16">
         <v>2532</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>2655.2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>44.25333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -943,8 +990,16 @@
       <c r="O8" s="16">
         <v>1227</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1018.7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>16.978333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -990,8 +1045,16 @@
       <c r="O9" s="16">
         <v>1026</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1096.5999999999999</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>18.276666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -1037,8 +1100,16 @@
       <c r="O10" s="16">
         <v>2167</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1767.7</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>29.461666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -1084,8 +1155,16 @@
       <c r="O11" s="16">
         <v>2503</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>2224</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>37.06666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -1131,8 +1210,16 @@
       <c r="O12" s="16">
         <v>1406</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1574.2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>26.236666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -1178,8 +1265,16 @@
       <c r="O13" s="16">
         <v>971</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>1140.9000000000001</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>19.015000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -1225,8 +1320,16 @@
       <c r="O14" s="16">
         <v>1452</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1744.9</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>29.081666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -1272,8 +1375,16 @@
       <c r="O15" s="16">
         <v>1743</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1479.1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>24.651666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -1319,8 +1430,16 @@
       <c r="O16" s="16">
         <v>2494</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>2176.1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>36.268333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -1366,8 +1485,16 @@
       <c r="O17" s="16">
         <v>3245</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>2876.8</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>47.946666666666673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -1413,8 +1540,16 @@
       <c r="O18" s="16">
         <v>1292</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>1533</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>25.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -1460,8 +1595,16 @@
       <c r="O19" s="16">
         <v>1684</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>1988.3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>33.138333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -1507,8 +1650,16 @@
       <c r="O20" s="16">
         <v>2714</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1746.6</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>29.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -1554,8 +1705,16 @@
       <c r="O21" s="16">
         <v>883</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>1116.3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>18.605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -1601,8 +1760,16 @@
       <c r="O22" s="16">
         <v>788</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>992.7</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>16.545000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>21</v>
       </c>
@@ -1648,8 +1815,16 @@
       <c r="O23" s="16">
         <v>1315</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>1382.7</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>23.045000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>22</v>
       </c>
@@ -1695,8 +1870,16 @@
       <c r="O24" s="16">
         <v>1055</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1057.9000000000001</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>17.631666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>23</v>
       </c>
@@ -1742,8 +1925,16 @@
       <c r="O25" s="16">
         <v>2180</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>2367.4</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>39.456666666666671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>24</v>
       </c>
@@ -1789,8 +1980,16 @@
       <c r="O26" s="16">
         <v>1011</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>1100.5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>18.341666666666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>25</v>
       </c>
@@ -1836,8 +2035,16 @@
       <c r="O27" s="16">
         <v>2446</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>2577.8000000000002</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>42.963333333333338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>26</v>
       </c>
@@ -1883,8 +2090,16 @@
       <c r="O28" s="16">
         <v>1222</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>1152.9000000000001</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>19.215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>27</v>
       </c>
@@ -1930,8 +2145,16 @@
       <c r="O29" s="16">
         <v>1785</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>1829.9</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>30.498333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>28</v>
       </c>
@@ -1977,8 +2200,16 @@
       <c r="O30" s="16">
         <v>1852</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>2254.6</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>37.576666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>29</v>
       </c>
@@ -2024,8 +2255,16 @@
       <c r="O31" s="16">
         <v>1301</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>1372.1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>22.868333333333332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>30</v>
       </c>
@@ -2071,8 +2310,16 @@
       <c r="O32" s="16">
         <v>2001</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>2191.4</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>36.523333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>31</v>
       </c>
@@ -2118,8 +2365,16 @@
       <c r="O33" s="16">
         <v>1409</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>1117.7</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>18.628333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>32</v>
       </c>
@@ -2165,8 +2420,16 @@
       <c r="O34" s="16">
         <v>13830</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>5563.2</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>92.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>33</v>
       </c>
@@ -2212,8 +2475,16 @@
       <c r="O35" s="16">
         <v>1143</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>1577</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>26.283333333333335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>34</v>
       </c>
@@ -2259,8 +2530,16 @@
       <c r="O36" s="16">
         <v>1220</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>1191.2</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>19.853333333333335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>35</v>
       </c>
@@ -2306,8 +2585,16 @@
       <c r="O37" s="16">
         <v>1053</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>1041.5</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>17.358333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>36</v>
       </c>
@@ -2353,8 +2640,16 @@
       <c r="O38" s="16">
         <v>1166</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>1275.3</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>21.254999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -2400,8 +2695,16 @@
       <c r="O39" s="16">
         <v>1241</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>1122.9000000000001</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>18.715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -2447,8 +2750,16 @@
       <c r="O40" s="16">
         <v>1154</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>1026.7</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>17.111666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -2494,8 +2805,16 @@
       <c r="O41" s="16">
         <v>891</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>1085</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>18.083333333333332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -2541,8 +2860,16 @@
       <c r="O42" s="16">
         <v>1632</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>1498.5</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>24.975000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>41</v>
       </c>
@@ -2588,8 +2915,16 @@
       <c r="O43" s="16">
         <v>2179</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>2300.6</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>38.343333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>42</v>
       </c>
@@ -2635,8 +2970,16 @@
       <c r="O44" s="16">
         <v>967</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>1083.4000000000001</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>18.056666666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>43</v>
       </c>
@@ -2682,8 +3025,16 @@
       <c r="O45" s="16">
         <v>1770</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>1552.6</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>25.876666666666665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>44</v>
       </c>
@@ -2729,8 +3080,16 @@
       <c r="O46" s="16">
         <v>1025</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>1099.3</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>18.321666666666665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>45</v>
       </c>
@@ -2776,8 +3135,16 @@
       <c r="O47" s="16">
         <v>3526</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>3473.6</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>57.893333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>46</v>
       </c>
@@ -2823,8 +3190,16 @@
       <c r="O48" s="16">
         <v>940</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>1174</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>19.566666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>47</v>
       </c>
@@ -2870,8 +3245,16 @@
       <c r="O49" s="16">
         <v>1178</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>1396.2</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>23.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>48</v>
       </c>
@@ -2917,8 +3300,16 @@
       <c r="O50" s="16">
         <v>1932</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>1850.1</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>30.834999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>49</v>
       </c>
@@ -2964,8 +3355,16 @@
       <c r="O51" s="16">
         <v>1114</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>1131.3</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>18.855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>50</v>
       </c>
@@ -3011,8 +3410,16 @@
       <c r="O52" s="16">
         <v>1844</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>1822.3</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>30.371666666666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>51</v>
       </c>
@@ -3058,8 +3465,16 @@
       <c r="O53" s="16">
         <v>3164</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>2832.4</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>47.206666666666671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>52</v>
       </c>
@@ -3105,8 +3520,16 @@
       <c r="O54" s="16">
         <v>1044</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>1051.5</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>17.524999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>53</v>
       </c>
@@ -3152,8 +3575,16 @@
       <c r="O55" s="16">
         <v>1693</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>1196.7</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>19.945</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>54</v>
       </c>
@@ -3199,8 +3630,16 @@
       <c r="O56" s="16">
         <v>812</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>998.9</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>16.648333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>55</v>
       </c>
@@ -3246,8 +3685,16 @@
       <c r="O57" s="16">
         <v>2416</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>2191.4</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>36.523333333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>56</v>
       </c>
@@ -3293,8 +3740,16 @@
       <c r="O58" s="16">
         <v>1236</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>1441.8</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>24.029999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>57</v>
       </c>
@@ -3340,8 +3795,16 @@
       <c r="O59" s="16">
         <v>1099</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>1143.8</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>19.063333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>58</v>
       </c>
@@ -3387,8 +3850,16 @@
       <c r="O60" s="16">
         <v>2396</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>2827.3</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>47.12166666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>59</v>
       </c>
@@ -3434,8 +3905,16 @@
       <c r="O61" s="16">
         <v>985</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>1011.5</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>16.858333333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>60</v>
       </c>
@@ -3481,8 +3960,16 @@
       <c r="O62" s="16">
         <v>1129</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>1292.2</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>21.536666666666669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>61</v>
       </c>
@@ -3528,8 +4015,16 @@
       <c r="O63" s="16">
         <v>1915</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>2068.1</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>34.468333333333334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>62</v>
       </c>
@@ -3575,8 +4070,16 @@
       <c r="O64" s="16">
         <v>2912</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>2593.9</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>43.231666666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>63</v>
       </c>
@@ -3622,8 +4125,16 @@
       <c r="O65" s="16">
         <v>1114</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>941.7</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>15.695</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>64</v>
       </c>
@@ -3669,8 +4180,16 @@
       <c r="O66" s="16">
         <v>1894</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>1850.6</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>30.84333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>65</v>
       </c>
@@ -3716,8 +4235,16 @@
       <c r="O67" s="16">
         <v>890</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <f t="shared" si="0"/>
+        <v>1111.2</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="1"/>
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>66</v>
       </c>
@@ -3763,8 +4290,16 @@
       <c r="O68" s="16">
         <v>1278</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <f t="shared" ref="P68:P102" si="2">SUM(F68:O68)/10</f>
+        <v>1441.8</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:Q102" si="3">P68/60</f>
+        <v>24.029999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>67</v>
       </c>
@@ -3810,8 +4345,16 @@
       <c r="O69" s="16">
         <v>1722</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>1544.1</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>25.734999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>68</v>
       </c>
@@ -3857,8 +4400,16 @@
       <c r="O70" s="16">
         <v>2211</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>2345.4</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>69</v>
       </c>
@@ -3904,8 +4455,16 @@
       <c r="O71" s="16">
         <v>1807</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>1399.9</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>23.331666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>70</v>
       </c>
@@ -3951,8 +4510,16 @@
       <c r="O72" s="16">
         <v>3552</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>3240.8</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>54.013333333333335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>71</v>
       </c>
@@ -3998,8 +4565,16 @@
       <c r="O73" s="16">
         <v>1019</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>920.6</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>15.343333333333334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>72</v>
       </c>
@@ -4045,8 +4620,16 @@
       <c r="O74" s="16">
         <v>870</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>877.4</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>14.623333333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>73</v>
       </c>
@@ -4092,8 +4675,16 @@
       <c r="O75" s="16">
         <v>1350</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>1620.7</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>27.011666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>74</v>
       </c>
@@ -4139,8 +4730,16 @@
       <c r="O76" s="16">
         <v>1896</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <f t="shared" si="2"/>
+        <v>1496.7</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>24.945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>75</v>
       </c>
@@ -4186,8 +4785,16 @@
       <c r="O77" s="16">
         <v>1310</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>1916.1</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>31.934999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>76</v>
       </c>
@@ -4233,8 +4840,16 @@
       <c r="O78" s="16">
         <v>2683</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>2490.4</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>41.506666666666668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>77</v>
       </c>
@@ -4280,8 +4895,16 @@
       <c r="O79" s="16">
         <v>1593</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>2088.8000000000002</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>34.81333333333334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>78</v>
       </c>
@@ -4327,8 +4950,16 @@
       <c r="O80" s="16">
         <v>1296</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <f t="shared" si="2"/>
+        <v>1382.7</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>23.045000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>79</v>
       </c>
@@ -4374,8 +5005,16 @@
       <c r="O81" s="16">
         <v>2996</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <f t="shared" si="2"/>
+        <v>2134</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>35.56666666666667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>80</v>
       </c>
@@ -4421,8 +5060,16 @@
       <c r="O82" s="16">
         <v>2213</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <f t="shared" si="2"/>
+        <v>2340</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>81</v>
       </c>
@@ -4468,8 +5115,16 @@
       <c r="O83" s="16">
         <v>1753</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <f t="shared" si="2"/>
+        <v>1413.6</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>82</v>
       </c>
@@ -4515,8 +5170,16 @@
       <c r="O84" s="16">
         <v>1280</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <f t="shared" si="2"/>
+        <v>1486.3</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>24.771666666666665</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>83</v>
       </c>
@@ -4562,8 +5225,16 @@
       <c r="O85" s="16">
         <v>1140</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <f t="shared" si="2"/>
+        <v>935.2</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>15.586666666666668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>84</v>
       </c>
@@ -4609,8 +5280,16 @@
       <c r="O86" s="16">
         <v>1723</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <f t="shared" si="2"/>
+        <v>1628.6</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>27.143333333333331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>85</v>
       </c>
@@ -4656,8 +5335,16 @@
       <c r="O87" s="16">
         <v>1496</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <f t="shared" si="2"/>
+        <v>1241.7</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>20.695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>86</v>
       </c>
@@ -4703,8 +5390,16 @@
       <c r="O88" s="16">
         <v>2676</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <f t="shared" si="2"/>
+        <v>2702.6</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>45.043333333333329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>87</v>
       </c>
@@ -4750,8 +5445,16 @@
       <c r="O89" s="16">
         <v>930</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>968.7</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>16.145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>88</v>
       </c>
@@ -4797,8 +5500,16 @@
       <c r="O90" s="16">
         <v>1770</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90">
+        <f t="shared" si="2"/>
+        <v>1847.1</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>30.785</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>89</v>
       </c>
@@ -4844,8 +5555,16 @@
       <c r="O91" s="16">
         <v>1130</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <f t="shared" si="2"/>
+        <v>1287.3</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>21.454999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>90</v>
       </c>
@@ -4891,8 +5610,16 @@
       <c r="O92" s="16">
         <v>4070</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <f t="shared" si="2"/>
+        <v>2705.9</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>45.098333333333336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>91</v>
       </c>
@@ -4938,8 +5665,16 @@
       <c r="O93" s="16">
         <v>1430</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <f t="shared" si="2"/>
+        <v>1817.6</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>30.293333333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>92</v>
       </c>
@@ -4985,8 +5720,16 @@
       <c r="O94" s="16">
         <v>2116</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <f t="shared" si="2"/>
+        <v>2075.1999999999998</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>34.586666666666666</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>93</v>
       </c>
@@ -5032,8 +5775,16 @@
       <c r="O95" s="16">
         <v>1376</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <f t="shared" si="2"/>
+        <v>1186.4000000000001</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>19.773333333333333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>94</v>
       </c>
@@ -5079,8 +5830,16 @@
       <c r="O96" s="16">
         <v>1130</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <f t="shared" si="2"/>
+        <v>1349.6</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>22.493333333333332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>95</v>
       </c>
@@ -5126,8 +5885,16 @@
       <c r="O97" s="16">
         <v>793</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97">
+        <f t="shared" si="2"/>
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>19.240000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
         <v>96</v>
       </c>
@@ -5173,8 +5940,16 @@
       <c r="O98" s="16">
         <v>853</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <f t="shared" si="2"/>
+        <v>1002.5</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>16.708333333333332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
         <v>97</v>
       </c>
@@ -5220,8 +5995,16 @@
       <c r="O99" s="16">
         <v>1103</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99">
+        <f t="shared" si="2"/>
+        <v>1019.7</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>16.995000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <v>98</v>
       </c>
@@ -5267,8 +6050,16 @@
       <c r="O100" s="16">
         <v>2053</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <f t="shared" si="2"/>
+        <v>2240</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>37.333333333333336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>99</v>
       </c>
@@ -5314,8 +6105,16 @@
       <c r="O101" s="16">
         <v>913</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101">
+        <f t="shared" si="2"/>
+        <v>1009.7</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>16.828333333333333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>100</v>
       </c>
@@ -5360,6 +6159,14 @@
       </c>
       <c r="O102" s="19">
         <v>1023</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="2"/>
+        <v>1437</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="3"/>
+        <v>23.95</v>
       </c>
     </row>
   </sheetData>
